--- a/excel.xlsx
+++ b/excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,22 +553,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>216</v>
+        <v>2791</v>
       </c>
       <c r="J2" t="n">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>39.95</v>
+        <v>2250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -615,61 +615,61 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>IMPERIO ROZERA LTDA</t>
+          <t>DANTAS DISTRIBUICAO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>48.000.949/0001-18</t>
+          <t>30.199.011/0001-03</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DECORLUX</t>
+          <t xml:space="preserve"> Britânia</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DECORLUX</t>
+          <t xml:space="preserve"> Britânia</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>39.95</v>
+        <v>2250</v>
       </c>
       <c r="U2" t="n">
-        <v>54216</v>
+        <v>66984</v>
       </c>
       <c r="V2" t="n">
-        <v>10027.45</v>
+        <v>54000</v>
       </c>
       <c r="W2" t="n">
-        <v>81.50462962962963</v>
+        <v>19.38373342887854</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>220.87</v>
+        <v>2791</v>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>41.7</v>
+        <v>2250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -716,61 +716,61 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>BENEDES SOARES BATISTA</t>
+          <t>DANTAS DISTRIBUICAO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23.303.444/0001-00</t>
+          <t>30.199.011/0001-03</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUKMA</t>
+          <t xml:space="preserve"> Britânia</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CWM12</t>
+          <t xml:space="preserve"> Britânia</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41.7</v>
+        <v>2250</v>
       </c>
       <c r="U3" t="n">
-        <v>53008.8</v>
+        <v>19537</v>
       </c>
       <c r="V3" t="n">
-        <v>10008</v>
+        <v>15750</v>
       </c>
       <c r="W3" t="n">
-        <v>81.12011590528365</v>
+        <v>19.38373342887854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>124.57</v>
+        <v>3195</v>
       </c>
       <c r="J4" t="n">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>42.6</v>
+        <v>3131.1</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -817,61 +817,61 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>GFM PRODUTOS E SERVICOS LTDA</t>
+          <t>BEL MICRO TECNOLOGIA S/A</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>50.972.910/0001-04</t>
+          <t>71.052.559/0001-03</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnolinsa</t>
+          <t xml:space="preserve"> HQ</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rele Fotoeletronico</t>
+          <t xml:space="preserve"> 18KH INV</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>42.6</v>
+        <v>3131.1</v>
       </c>
       <c r="U4" t="n">
-        <v>26907.12</v>
+        <v>162945</v>
       </c>
       <c r="V4" t="n">
-        <v>9201.6</v>
+        <v>159686.1</v>
       </c>
       <c r="W4" t="n">
-        <v>65.80236011880871</v>
+        <v>2.000000000000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>91.59999999999999</v>
+        <v>3195</v>
       </c>
       <c r="J5" t="n">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -905,13 +905,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Fracassado e Homologado</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3195</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -920,57 +918,61 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>S VASCONCELOS ROSAS</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>40.457.662/0001-00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> HQ</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+          <t xml:space="preserve"> HQ</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>3195</v>
+      </c>
+      <c r="U5" t="n">
+        <v>63900</v>
+      </c>
+      <c r="V5" t="n">
+        <v>63900</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -980,7 +982,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -992,10 +994,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>73.51000000000001</v>
+        <v>7408</v>
       </c>
       <c r="J6" t="n">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1008,7 +1010,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>71.73999999999999</v>
+        <v>7259.84</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1017,61 +1019,61 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>J2R AUTOMACAO LTDA LTDA</t>
+          <t>BEL MICRO TECNOLOGIA S/A</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>30.247.600/0001-10</t>
+          <t>71.052.559/0001-03</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> STARK ELECTRIC</t>
+          <t xml:space="preserve"> HISENSE</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LR2-3357 37-50A</t>
+          <t xml:space="preserve"> 36KH K-7</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>71.73999999999999</v>
+        <v>7259.84</v>
       </c>
       <c r="U6" t="n">
-        <v>13672.86</v>
+        <v>185200</v>
       </c>
       <c r="V6" t="n">
-        <v>13343.64</v>
+        <v>181496</v>
       </c>
       <c r="W6" t="n">
-        <v>2.407835668616531</v>
+        <v>2.000000000000002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1081,7 +1083,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1093,10 +1095,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13.66</v>
+        <v>7408</v>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1109,7 +1111,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4.65</v>
+        <v>7259.84</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1118,61 +1120,61 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>MACROMMERCE LTDA</t>
+          <t>ALMIX COMERCIO DE SUPRIMENTOS LTDA</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>47.977.771/0001-05</t>
+          <t>11.594.621/0001-67</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETEK</t>
+          <t xml:space="preserve"> PHILCO</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETEK</t>
+          <t xml:space="preserve"> PAC36000IQFM15</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.65</v>
+        <v>7259.84</v>
       </c>
       <c r="U7" t="n">
-        <v>2458.8</v>
+        <v>59264</v>
       </c>
       <c r="V7" t="n">
-        <v>837.0000000000001</v>
+        <v>58078.72</v>
       </c>
       <c r="W7" t="n">
-        <v>65.95900439238653</v>
+        <v>2.000000000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1182,7 +1184,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1194,10 +1196,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>97.51000000000001</v>
+        <v>15212</v>
       </c>
       <c r="J8" t="n">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1206,74 +1208,52 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Adjudicado e Homologado</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>45.6</v>
+          <t>Anulado e Homologado</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>CARLOS ROBERTO KERBER</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>LD 209 MAGALHAES DISTRIBUIDORA DE MATERIAL DE CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>32.969.392/0001-98</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> wlg</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> conforme tr</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>18429.39</v>
-      </c>
-      <c r="V8" t="n">
-        <v>8618.4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>53.23556558301712</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1283,7 +1263,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1295,10 +1275,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>349.81</v>
+        <v>15212</v>
       </c>
       <c r="J9" t="n">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1311,7 +1291,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>129.5</v>
+        <v>11910.65</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1320,61 +1300,61 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>AVANT COLOR LTDA</t>
+          <t>ALMIX COMERCIO DE SUPRIMENTOS LTDA</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>51.536.681/0001-48</t>
+          <t>11.594.621/0001-67</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AVANT</t>
+          <t xml:space="preserve"> ELGIN</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AVANT</t>
+          <t xml:space="preserve"> PVF48</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>129.5</v>
+        <v>11910.65</v>
       </c>
       <c r="U9" t="n">
-        <v>51072.26</v>
+        <v>91272</v>
       </c>
       <c r="V9" t="n">
-        <v>18907</v>
+        <v>71463.89999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>62.97990337611846</v>
+        <v>21.7022745201157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1384,7 +1364,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1396,10 +1376,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6.51</v>
+        <v>15987</v>
       </c>
       <c r="J10" t="n">
-        <v>485</v>
+        <v>19</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1412,7 +1392,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5.63</v>
+        <v>9800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1421,61 +1401,61 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>TAG COMERCIO DE MATERIAL ELETRICO SERVICOS E MONTAGEM LTDA</t>
+          <t>BEL MICRO TECNOLOGIA S/A</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14.984.691/0001-10</t>
+          <t>71.052.559/0001-03</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ELETROKIT</t>
+          <t xml:space="preserve"> HISENSE</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> terminal cabo 70mm olhal</t>
+          <t xml:space="preserve"> 60KH P-T</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>5.63</v>
+        <v>9800</v>
       </c>
       <c r="U10" t="n">
-        <v>3157.35</v>
+        <v>303753</v>
       </c>
       <c r="V10" t="n">
-        <v>2730.55</v>
+        <v>186200</v>
       </c>
       <c r="W10" t="n">
-        <v>13.51766513056836</v>
+        <v>38.70019390754989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>791010</t>
+          <t>787000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90008</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1485,7 +1465,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
+          <t>Material Permanente</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1497,10 +1477,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>403.52</v>
+        <v>15987</v>
       </c>
       <c r="J11" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1513,47 +1493,3878 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>399.95</v>
-      </c>
-      <c r="N11" t="n">
-        <v>399.55</v>
+        <v>10800</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>CARLOS ROBERTO KERBER</t>
+          <t>THIAGO MARTINS AMORIM</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>VINTEK IND., COMERCIO E SERVICOS LTDA</t>
+          <t>RCL TECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>27.732.837/0001-81</t>
+          <t>35.460.768/0001-22</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brasiltec</t>
+          <t xml:space="preserve"> TR</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C2S4213 G1/8</t>
+          <t xml:space="preserve"> TR</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>399.55</v>
+        <v>10800</v>
       </c>
       <c r="U11" t="n">
-        <v>37930.88</v>
+        <v>79935</v>
       </c>
       <c r="V11" t="n">
-        <v>37557.7</v>
+        <v>54000</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9838421887390925</v>
+        <v>32.44511165321824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3985</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1854.54</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>ALMIX COMERCIO DE SUPRIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>11.594.621/0001-67</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VENÂNCIO</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGP150</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1854.54</v>
+      </c>
+      <c r="U12" t="n">
+        <v>71730</v>
+      </c>
+      <c r="V12" t="n">
+        <v>33381.72</v>
+      </c>
+      <c r="W12" t="n">
+        <v>53.46198243412799</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3985</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1854.54</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ALMIX COMERCIO DE SUPRIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>11.594.621/0001-67</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VENÂNCIO</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGP150</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1854.54</v>
+      </c>
+      <c r="U13" t="n">
+        <v>19925</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9272.700000000001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>53.46198243412799</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>4020</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>2518.55</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>53.211.921 LAURA DUMKE PAZ</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>53.211.921/0001-60</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venancio</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venancio</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>2518.55</v>
+      </c>
+      <c r="U14" t="n">
+        <v>48240</v>
+      </c>
+      <c r="V14" t="n">
+        <v>30222.6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>37.34950248756218</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>43855</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B10 LICITA LTDA</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>24.375.213/0001-66</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WICTORY / HUX METALURGICA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WCAA-11 elétrico</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>22000</v>
+      </c>
+      <c r="U15" t="n">
+        <v>482405</v>
+      </c>
+      <c r="V15" t="n">
+        <v>242000</v>
+      </c>
+      <c r="W15" t="n">
+        <v>49.83468247634249</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>17</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>43855</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B10 LICITA LTDA</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>24.375.213/0001-66</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WICTORY / HUX METALURGICA</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WCAA-11 elétrico</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>22000</v>
+      </c>
+      <c r="U16" t="n">
+        <v>131565</v>
+      </c>
+      <c r="V16" t="n">
+        <v>66000</v>
+      </c>
+      <c r="W16" t="n">
+        <v>49.83468247634249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>18</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>26857</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>14700</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ROMAG EQUIPAMENTOS PARA COZINHAS LTDA</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>48.094.034/0001-19</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERINOX</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGV500AC-ERX</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>14700</v>
+      </c>
+      <c r="U17" t="n">
+        <v>241713</v>
+      </c>
+      <c r="V17" t="n">
+        <v>132300</v>
+      </c>
+      <c r="W17" t="n">
+        <v>45.26566630673567</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>19</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>26857</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>14700</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>ROMAG EQUIPAMENTOS PARA COZINHAS LTDA</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>48.094.034/0001-19</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERINOX</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGV500AC-ERX</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>14700</v>
+      </c>
+      <c r="U18" t="n">
+        <v>53714</v>
+      </c>
+      <c r="V18" t="n">
+        <v>29400</v>
+      </c>
+      <c r="W18" t="n">
+        <v>45.26566630673567</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2410</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1667.47</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>ALMIX COMERCIO DE SUPRIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>11.594.621/0001-67</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VITALEX</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQI25</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>1667.47</v>
+      </c>
+      <c r="U19" t="n">
+        <v>33740</v>
+      </c>
+      <c r="V19" t="n">
+        <v>23344.58</v>
+      </c>
+      <c r="W19" t="n">
+        <v>30.8103734439834</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1986</v>
+      </c>
+      <c r="J20" t="n">
+        <v>17</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1475.78</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>ALMIX COMERCIO DE SUPRIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>11.594.621/0001-67</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VITALEX</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQI15</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1475.78</v>
+      </c>
+      <c r="U20" t="n">
+        <v>33762</v>
+      </c>
+      <c r="V20" t="n">
+        <v>25088.26</v>
+      </c>
+      <c r="W20" t="n">
+        <v>25.6908358509567</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>27</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>172</v>
+      </c>
+      <c r="J21" t="n">
+        <v>26</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Anulado e Homologado</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>28</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>6630</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>6630</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>RG COMERCIO DE EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>43.875.492/0001-71</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gelopar</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1029 L</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>6630</v>
+      </c>
+      <c r="U22" t="n">
+        <v>66300</v>
+      </c>
+      <c r="V22" t="n">
+        <v>66300</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>29</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>6630</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>6630</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>RG COMERCIO DE EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>43.875.492/0001-71</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gelopar</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1029</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>6630</v>
+      </c>
+      <c r="U23" t="n">
+        <v>19890</v>
+      </c>
+      <c r="V23" t="n">
+        <v>19890</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3167</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>2880.99</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>VINCITA COMERCIO DE IMPLEMENTOS AGRICOLAS LTDA</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>49.461.961/0001-92</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MIDEA/MIDEA</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MD-RT580MTA01</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>2880.99</v>
+      </c>
+      <c r="U24" t="n">
+        <v>63340</v>
+      </c>
+      <c r="V24" t="n">
+        <v>57619.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9.0309441111462</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>31</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>3828</v>
+      </c>
+      <c r="J25" t="n">
+        <v>17</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>3152</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>PRIMER SOLUCOES LTDA</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>47.725.628/0001-18</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ELECTROLUX</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> H550</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>3152</v>
+      </c>
+      <c r="U25" t="n">
+        <v>65076</v>
+      </c>
+      <c r="V25" t="n">
+        <v>53584</v>
+      </c>
+      <c r="W25" t="n">
+        <v>17.65935214211076</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>32</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3828</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>3152</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>PRIMER SOLUCOES LTDA</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>47.725.628/0001-18</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ELECTROLUX</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> H550</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>3152</v>
+      </c>
+      <c r="U26" t="n">
+        <v>19140</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15760</v>
+      </c>
+      <c r="W26" t="n">
+        <v>17.65935214211076</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>33</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>852</v>
+      </c>
+      <c r="J27" t="n">
+        <v>39</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Anulado e Homologado</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>34</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>14072</v>
+      </c>
+      <c r="J28" t="n">
+        <v>20</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>10430.14</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>SUL AGUA EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>46.344.050/0001-97</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K2</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K2 K2</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>10430.14</v>
+      </c>
+      <c r="U28" t="n">
+        <v>281440</v>
+      </c>
+      <c r="V28" t="n">
+        <v>208602.8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>25.88018760659466</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>35</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>14072</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>9927.4</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>SUL AGUA EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>46.344.050/0001-97</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K2</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K2 K2</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>9927.4</v>
+      </c>
+      <c r="U29" t="n">
+        <v>84432</v>
+      </c>
+      <c r="V29" t="n">
+        <v>59564.39999999999</v>
+      </c>
+      <c r="W29" t="n">
+        <v>29.45281409891984</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>36</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>5568</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>4310</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>DANTAS DISTRIBUICAO E SERVICOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>30.199.011/0001-03</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIRMAN</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIRMAN</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>4310</v>
+      </c>
+      <c r="U30" t="n">
+        <v>77952</v>
+      </c>
+      <c r="V30" t="n">
+        <v>60340</v>
+      </c>
+      <c r="W30" t="n">
+        <v>22.5933908045977</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>37</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>6311</v>
+      </c>
+      <c r="J31" t="n">
+        <v>12</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>6311</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>SUL AGUA EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>46.344.050/0001-97</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eccel</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eccel Eccel</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>6311</v>
+      </c>
+      <c r="U31" t="n">
+        <v>75732</v>
+      </c>
+      <c r="V31" t="n">
+        <v>75732</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>40</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>3222</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>931</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>F.COMM COMERCIO E DISTRIBUIDORA LTDA</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>49.535.491/0001-64</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WELMY</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> W 0300/50 PR</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>931</v>
+      </c>
+      <c r="U32" t="n">
+        <v>41886</v>
+      </c>
+      <c r="V32" t="n">
+        <v>12103</v>
+      </c>
+      <c r="W32" t="n">
+        <v>71.10490378646803</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>41</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>11784</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>L&amp;E COMERCIAL E MATERIAIS DE CONSTRUCAO LTDA</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>36.078.874/0001-09</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUALINOX</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUALINOX</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="U33" t="n">
+        <v>106056</v>
+      </c>
+      <c r="V33" t="n">
+        <v>90000</v>
+      </c>
+      <c r="W33" t="n">
+        <v>15.13917175831636</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>42</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>11784</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>L&amp;E COMERCIAL E MATERIAIS DE CONSTRUCAO LTDA</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>36.078.874/0001-09</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUALINOX</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUALINOX</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>10000</v>
+      </c>
+      <c r="U34" t="n">
+        <v>35352</v>
+      </c>
+      <c r="V34" t="n">
+        <v>30000</v>
+      </c>
+      <c r="W34" t="n">
+        <v>15.13917175831636</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>44</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>191</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>46.580.136 CRISTIANE CASTELO BRANCO COUTINHO</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>46.580.136/0001-19</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> conforme TR</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> conforme TR</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4966</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2420.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>51.25654450261781</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>49</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2723</v>
+      </c>
+      <c r="J36" t="n">
+        <v>20</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1877.72</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>GERACAO COMERCIO E SERVICOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>08.532.500/0001-86</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Geração</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD 49</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>1877.72</v>
+      </c>
+      <c r="U36" t="n">
+        <v>54460</v>
+      </c>
+      <c r="V36" t="n">
+        <v>37554.4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>31.04223283143591</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>11732</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Anulado e Homologado</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>51</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>11732</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Anulado e Homologado</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>52</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>8042</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>5100</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>YRLEY BARBOSA DA SILVA LTDA</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>45.149.571/0001-20</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BEGEL</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RFI - 150</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>5100</v>
+      </c>
+      <c r="U39" t="n">
+        <v>96504</v>
+      </c>
+      <c r="V39" t="n">
+        <v>61200</v>
+      </c>
+      <c r="W39" t="n">
+        <v>36.58293956727182</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>53</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>8042</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>5100</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>YRLEY BARBOSA DA SILVA LTDA</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>45.149.571/0001-20</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BEGEL</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RFI - 150</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>5100</v>
+      </c>
+      <c r="U40" t="n">
+        <v>24126</v>
+      </c>
+      <c r="V40" t="n">
+        <v>15300</v>
+      </c>
+      <c r="W40" t="n">
+        <v>36.58293956727182</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>56</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1454</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>704.47</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>BT COMERCIO INTELIGENTE LTDA</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>45.329.312/0001-81</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JL COLOMBO</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JL8B-1253</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>704.47</v>
+      </c>
+      <c r="U41" t="n">
+        <v>37804</v>
+      </c>
+      <c r="V41" t="n">
+        <v>18316.22</v>
+      </c>
+      <c r="W41" t="n">
+        <v>51.54951856946355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>57</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>254</v>
+      </c>
+      <c r="J42" t="n">
+        <v>22</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>110</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>DANTAS DISTRIBUICAO E SERVICOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>30.199.011/0001-03</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MONDIAL</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MONDIAL</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>110</v>
+      </c>
+      <c r="U42" t="n">
+        <v>5588</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2420</v>
+      </c>
+      <c r="W42" t="n">
+        <v>56.69291338582677</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>60</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>222</v>
+      </c>
+      <c r="J43" t="n">
+        <v>111</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>215</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>52.707.488 WENDEL ROSA BARRETO</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>52.707.488/0001-95</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ventisol</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ventisol</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>215</v>
+      </c>
+      <c r="U43" t="n">
+        <v>24642</v>
+      </c>
+      <c r="V43" t="n">
+        <v>23865</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3.153153153153154</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>61</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>8124</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>3334.96</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>DINAMICA DISTRIBUIDORA E COMERCIO VAREJISTA DE ELETRODOMESTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>37.544.176/0001-14</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VENANCIO</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VENANCIO</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>3334.96</v>
+      </c>
+      <c r="U44" t="n">
+        <v>97488</v>
+      </c>
+      <c r="V44" t="n">
+        <v>40019.52</v>
+      </c>
+      <c r="W44" t="n">
+        <v>58.94928606597736</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>62</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>8124</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>3251.58</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>DINAMICA DISTRIBUIDORA E COMERCIO VAREJISTA DE ELETRODOMESTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>37.544.176/0001-14</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VENANCIO</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VENANCIO</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>3251.58</v>
+      </c>
+      <c r="U45" t="n">
+        <v>32496</v>
+      </c>
+      <c r="V45" t="n">
+        <v>13006.32</v>
+      </c>
+      <c r="W45" t="n">
+        <v>59.97562776957164</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>65</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>577</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>338</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>46.948.811 RAIRYS FERNANDES SOUSA</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>46.948.811/0001-10</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> METALOSA</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Carrinho Transporte Material: Metal</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>338</v>
+      </c>
+      <c r="U46" t="n">
+        <v>10963</v>
+      </c>
+      <c r="V46" t="n">
+        <v>6422</v>
+      </c>
+      <c r="W46" t="n">
+        <v>41.421143847487</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>66</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2509</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1715</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>BT COMERCIO INTELIGENTE LTDA</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>45.329.312/0001-81</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MULTILASER</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TL067M</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>1715</v>
+      </c>
+      <c r="U47" t="n">
+        <v>65234</v>
+      </c>
+      <c r="V47" t="n">
+        <v>44590</v>
+      </c>
+      <c r="W47" t="n">
+        <v>31.64607413312076</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>67</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2509</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1715</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>BT COMERCIO INTELIGENTE LTDA</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>45.329.312/0001-81</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MULTILASER</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TL067M</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>1715</v>
+      </c>
+      <c r="U48" t="n">
+        <v>20072</v>
+      </c>
+      <c r="V48" t="n">
+        <v>13720</v>
+      </c>
+      <c r="W48" t="n">
+        <v>31.64607413312076</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>68</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>6619</v>
+      </c>
+      <c r="J49" t="n">
+        <v>18</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Anulado e Homologado</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>787000</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>90008</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SRP - Registro de Preço</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Material Permanente</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>69</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>6619</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Adjudicado e Homologado</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>4699.1</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>THIAGO MARTINS AMORIM</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>PRIMER SOLUCOES LTDA</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>47.725.628/0001-18</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCL</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 75P635</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4699.1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>33095</v>
+      </c>
+      <c r="V50" t="n">
+        <v>23495.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>29.00589212872034</v>
       </c>
     </row>
   </sheetData>
